--- a/data/pca/factorExposure/factorExposure_2013-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-29.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001606495482598435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001887440730401011</v>
+      </c>
+      <c r="C2">
+        <v>-0.0328388009661152</v>
+      </c>
+      <c r="D2">
+        <v>0.004388049007345497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001971180317732224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005854797061543483</v>
+      </c>
+      <c r="C4">
+        <v>-0.08330560757855381</v>
+      </c>
+      <c r="D4">
+        <v>0.08077990364599721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000420129481207595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01303526387416868</v>
+      </c>
+      <c r="C6">
+        <v>-0.1068416535133035</v>
+      </c>
+      <c r="D6">
+        <v>0.03655059197790422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00139595084233987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004818525023574493</v>
+      </c>
+      <c r="C7">
+        <v>-0.05186193589385152</v>
+      </c>
+      <c r="D7">
+        <v>0.03815156605653848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001643656912635613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005609964196328117</v>
+      </c>
+      <c r="C8">
+        <v>-0.03672208069945952</v>
+      </c>
+      <c r="D8">
+        <v>0.04042686172133653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005033037549984078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003900811009529374</v>
+      </c>
+      <c r="C9">
+        <v>-0.06840925792042549</v>
+      </c>
+      <c r="D9">
+        <v>0.07063592387710935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004109194783059382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005725732896717351</v>
+      </c>
+      <c r="C10">
+        <v>-0.07587912915404793</v>
+      </c>
+      <c r="D10">
+        <v>-0.2103625812321129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005125706547853365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004932357485280231</v>
+      </c>
+      <c r="C11">
+        <v>-0.07782017987632921</v>
+      </c>
+      <c r="D11">
+        <v>0.06438113657839868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009103859644583693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003635870201517366</v>
+      </c>
+      <c r="C12">
+        <v>-0.06255225592413699</v>
+      </c>
+      <c r="D12">
+        <v>0.04595366602965503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003470422464352136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008591759634817625</v>
+      </c>
+      <c r="C13">
+        <v>-0.06888771951630107</v>
+      </c>
+      <c r="D13">
+        <v>0.06960792296132516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003218623996933738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001577066407024093</v>
+      </c>
+      <c r="C14">
+        <v>-0.04590925895296244</v>
+      </c>
+      <c r="D14">
+        <v>0.01460368998170538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003023093769325871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005585020780678623</v>
+      </c>
+      <c r="C15">
+        <v>-0.03779900569085759</v>
+      </c>
+      <c r="D15">
+        <v>0.03944786548656246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002774951521105074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00474831692106443</v>
+      </c>
+      <c r="C16">
+        <v>-0.06395285414984125</v>
+      </c>
+      <c r="D16">
+        <v>0.04992979569719719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001255970539096117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008914157093957837</v>
+      </c>
+      <c r="C20">
+        <v>-0.06452480803423814</v>
+      </c>
+      <c r="D20">
+        <v>0.05666429028333935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00471528016323123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009906351764196993</v>
+      </c>
+      <c r="C21">
+        <v>-0.02270980201766043</v>
+      </c>
+      <c r="D21">
+        <v>0.03758410628270929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01687386760519107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00713355834223665</v>
+      </c>
+      <c r="C22">
+        <v>-0.09096220749980596</v>
+      </c>
+      <c r="D22">
+        <v>0.1011903960867562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0171823732546696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006924297326848947</v>
+      </c>
+      <c r="C23">
+        <v>-0.09202496779628912</v>
+      </c>
+      <c r="D23">
+        <v>0.1018024553576177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003666397323141054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004546343404916517</v>
+      </c>
+      <c r="C24">
+        <v>-0.07196802247953878</v>
+      </c>
+      <c r="D24">
+        <v>0.06078050563219965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005261079526949588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002605238198359019</v>
+      </c>
+      <c r="C25">
+        <v>-0.07686466325512534</v>
+      </c>
+      <c r="D25">
+        <v>0.06560509799306306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006163073916602048</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003578391011127447</v>
+      </c>
+      <c r="C26">
+        <v>-0.04104530853219308</v>
+      </c>
+      <c r="D26">
+        <v>0.02784434323555768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00555179261118925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005403950458896395</v>
+      </c>
+      <c r="C28">
+        <v>-0.1272833662011714</v>
+      </c>
+      <c r="D28">
+        <v>-0.3096992790144768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002402029853678609</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003234541180571941</v>
+      </c>
+      <c r="C29">
+        <v>-0.04784698854066362</v>
+      </c>
+      <c r="D29">
+        <v>0.01707157582293546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005241766609576091</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008551286859453009</v>
+      </c>
+      <c r="C30">
+        <v>-0.1360761067644738</v>
+      </c>
+      <c r="D30">
+        <v>0.1098380131541585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>6.50182460094036e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006033792142826266</v>
+      </c>
+      <c r="C31">
+        <v>-0.04522081899453022</v>
+      </c>
+      <c r="D31">
+        <v>0.03408548344751496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001835625496531051</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003873890430308401</v>
+      </c>
+      <c r="C32">
+        <v>-0.03989412169154408</v>
+      </c>
+      <c r="D32">
+        <v>0.01134050301737925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003220296322784022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007540244056566322</v>
+      </c>
+      <c r="C33">
+        <v>-0.08208521113555974</v>
+      </c>
+      <c r="D33">
+        <v>0.0766806725456354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005315201680570547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003525404969930687</v>
+      </c>
+      <c r="C34">
+        <v>-0.05648553878205782</v>
+      </c>
+      <c r="D34">
+        <v>0.0466702032612435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003581811099738172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004722598507451585</v>
+      </c>
+      <c r="C35">
+        <v>-0.03802618865816819</v>
+      </c>
+      <c r="D35">
+        <v>0.01287133202434987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004588235009558059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001409038542003899</v>
+      </c>
+      <c r="C36">
+        <v>-0.02340073183847022</v>
+      </c>
+      <c r="D36">
+        <v>0.02151071153560255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002388503951177631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009537991940990333</v>
+      </c>
+      <c r="C38">
+        <v>-0.03344593953200999</v>
+      </c>
+      <c r="D38">
+        <v>0.02788734389202255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01412417331082015</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001177936011927611</v>
+      </c>
+      <c r="C39">
+        <v>-0.1145036012271985</v>
+      </c>
+      <c r="D39">
+        <v>0.08200133960349099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008011936309364733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002203181158822135</v>
+      </c>
+      <c r="C40">
+        <v>-0.08681550809901666</v>
+      </c>
+      <c r="D40">
+        <v>0.02670027574927655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.000184128184349468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007261693014132418</v>
+      </c>
+      <c r="C41">
+        <v>-0.03848573306703979</v>
+      </c>
+      <c r="D41">
+        <v>0.03643175262164065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003259383169492265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003148334638140352</v>
+      </c>
+      <c r="C43">
+        <v>-0.04994418873663813</v>
+      </c>
+      <c r="D43">
+        <v>0.02852772839790144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00509686555166009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003501700881300548</v>
+      </c>
+      <c r="C44">
+        <v>-0.107303249884194</v>
+      </c>
+      <c r="D44">
+        <v>0.08511949238807182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002568389657155065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002415196870509154</v>
+      </c>
+      <c r="C46">
+        <v>-0.03483595252444856</v>
+      </c>
+      <c r="D46">
+        <v>0.03558640268138273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001543598186704419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.00282614754705625</v>
+      </c>
+      <c r="C47">
+        <v>-0.03937967626303412</v>
+      </c>
+      <c r="D47">
+        <v>0.02781577943808548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003931291604850023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006462867204046999</v>
+      </c>
+      <c r="C48">
+        <v>-0.02895494043317691</v>
+      </c>
+      <c r="D48">
+        <v>0.0301532773580704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01453744557390626</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01366584800844893</v>
+      </c>
+      <c r="C49">
+        <v>-0.1706780418629172</v>
+      </c>
+      <c r="D49">
+        <v>0.0339771404052411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004533087566191923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003510243029228185</v>
+      </c>
+      <c r="C50">
+        <v>-0.04133444119606246</v>
+      </c>
+      <c r="D50">
+        <v>0.03897083832489854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001831382657397746</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00399378242386349</v>
+      </c>
+      <c r="C51">
+        <v>-0.01953687397148523</v>
+      </c>
+      <c r="D51">
+        <v>0.03335368236874212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008070372482851212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02015061586644142</v>
+      </c>
+      <c r="C53">
+        <v>-0.1650974776475508</v>
+      </c>
+      <c r="D53">
+        <v>0.05228675824627279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.000133149819323278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008326620221883567</v>
+      </c>
+      <c r="C54">
+        <v>-0.05493653714141725</v>
+      </c>
+      <c r="D54">
+        <v>0.04227346007656004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005099689423599252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00925333834591793</v>
+      </c>
+      <c r="C55">
+        <v>-0.1052055713680182</v>
+      </c>
+      <c r="D55">
+        <v>0.05268845722055984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002610368106604927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01933923955771643</v>
+      </c>
+      <c r="C56">
+        <v>-0.1719761907016712</v>
+      </c>
+      <c r="D56">
+        <v>0.04880660898388807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00809918855358167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0192710220021085</v>
+      </c>
+      <c r="C58">
+        <v>-0.1007424867225958</v>
+      </c>
+      <c r="D58">
+        <v>0.07917496051348334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008267422012541834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009278196487864543</v>
+      </c>
+      <c r="C59">
+        <v>-0.1698684691719443</v>
+      </c>
+      <c r="D59">
+        <v>-0.2789708096516358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006774425953135829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02294191994803895</v>
+      </c>
+      <c r="C60">
+        <v>-0.2211355891531842</v>
+      </c>
+      <c r="D60">
+        <v>0.0299447489736583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01571951714032297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002152382014271957</v>
+      </c>
+      <c r="C61">
+        <v>-0.09444004746272314</v>
+      </c>
+      <c r="D61">
+        <v>0.06221802905426635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1824048282426202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1434615941707322</v>
+      </c>
+      <c r="C62">
+        <v>-0.07637648073208601</v>
+      </c>
+      <c r="D62">
+        <v>0.0538556393524653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002264643698055363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006407739736269312</v>
+      </c>
+      <c r="C63">
+        <v>-0.05937043448060058</v>
+      </c>
+      <c r="D63">
+        <v>0.0248824582196744</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007830978600378857</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01455692419013559</v>
+      </c>
+      <c r="C64">
+        <v>-0.1025697007884155</v>
+      </c>
+      <c r="D64">
+        <v>0.0643510738964307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-1.720136788800186e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01675322474072648</v>
+      </c>
+      <c r="C65">
+        <v>-0.1136778117577517</v>
+      </c>
+      <c r="D65">
+        <v>0.02950552934465945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01011230828696093</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0119300507322242</v>
+      </c>
+      <c r="C66">
+        <v>-0.1530000581530724</v>
+      </c>
+      <c r="D66">
+        <v>0.1194854200742214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002311880674775429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01556960038164029</v>
+      </c>
+      <c r="C67">
+        <v>-0.06280814286136602</v>
+      </c>
+      <c r="D67">
+        <v>0.03854986167285623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007637233879507812</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001378373225466968</v>
+      </c>
+      <c r="C68">
+        <v>-0.1104505735984217</v>
+      </c>
+      <c r="D68">
+        <v>-0.2608262303867862</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.004160478198260428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005646468818414367</v>
+      </c>
+      <c r="C69">
+        <v>-0.04679988111486567</v>
+      </c>
+      <c r="D69">
+        <v>0.04371302703086014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001676554420477744</v>
+      </c>
+      <c r="C70">
+        <v>-0.001457749800541796</v>
+      </c>
+      <c r="D70">
+        <v>0.001971394777165686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003549237088800538</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00610044910455034</v>
+      </c>
+      <c r="C71">
+        <v>-0.1129916845496154</v>
+      </c>
+      <c r="D71">
+        <v>-0.2832036451457111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009149824932027114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01506708642703239</v>
+      </c>
+      <c r="C72">
+        <v>-0.1498962605528402</v>
+      </c>
+      <c r="D72">
+        <v>0.02659245452122595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01377752359688791</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02929506003690183</v>
+      </c>
+      <c r="C73">
+        <v>-0.2825166604503379</v>
+      </c>
+      <c r="D73">
+        <v>0.05162359465506897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004901092367485463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001435435328057184</v>
+      </c>
+      <c r="C74">
+        <v>-0.104533336988674</v>
+      </c>
+      <c r="D74">
+        <v>0.04298623268507438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007051476676633316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01048729483863292</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309130870195103</v>
+      </c>
+      <c r="D75">
+        <v>0.03992224209443258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01116954104457514</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02114597680629231</v>
+      </c>
+      <c r="C76">
+        <v>-0.1452752275984083</v>
+      </c>
+      <c r="D76">
+        <v>0.07441888172400904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003329440768896642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02394510399533776</v>
+      </c>
+      <c r="C77">
+        <v>-0.1315689189248984</v>
+      </c>
+      <c r="D77">
+        <v>0.06659090795051727</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003699598223806855</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01394971695718938</v>
+      </c>
+      <c r="C78">
+        <v>-0.09112376071356085</v>
+      </c>
+      <c r="D78">
+        <v>0.06697489989313431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02707364544369381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.036643165207292</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560291321263808</v>
+      </c>
+      <c r="D79">
+        <v>0.03486615389229522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004770414441752097</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01053501512205367</v>
+      </c>
+      <c r="C80">
+        <v>-0.04135401604176254</v>
+      </c>
+      <c r="D80">
+        <v>0.03374558173953505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0004310546415064582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0143624858549778</v>
+      </c>
+      <c r="C81">
+        <v>-0.1205595514305224</v>
+      </c>
+      <c r="D81">
+        <v>0.05663774873763101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005944807589774956</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01954393691498152</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417138379567789</v>
+      </c>
+      <c r="D82">
+        <v>0.04808401446113397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006321660540131445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009578914013418698</v>
+      </c>
+      <c r="C83">
+        <v>-0.0555230646477512</v>
+      </c>
+      <c r="D83">
+        <v>0.0514681943365451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01523305617534628</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01152399338446705</v>
+      </c>
+      <c r="C84">
+        <v>-0.02967855809133412</v>
+      </c>
+      <c r="D84">
+        <v>0.002132044560559895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01545698132237513</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02777332809900447</v>
+      </c>
+      <c r="C85">
+        <v>-0.1281106206174852</v>
+      </c>
+      <c r="D85">
+        <v>0.05290959053916452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003884288006465262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005360640342638463</v>
+      </c>
+      <c r="C86">
+        <v>-0.0484808810506662</v>
+      </c>
+      <c r="D86">
+        <v>0.02487572287205467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008191873305778525</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009777089945452152</v>
+      </c>
+      <c r="C87">
+        <v>-0.1266900501638502</v>
+      </c>
+      <c r="D87">
+        <v>0.08340949396698524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01487062393751596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003074835380831279</v>
+      </c>
+      <c r="C88">
+        <v>-0.06880333522184552</v>
+      </c>
+      <c r="D88">
+        <v>0.01933812773676602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01610699994008559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001170103164749018</v>
+      </c>
+      <c r="C89">
+        <v>-0.1648375376634343</v>
+      </c>
+      <c r="D89">
+        <v>-0.3448962103739898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003919616752506993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007176598480856629</v>
+      </c>
+      <c r="C90">
+        <v>-0.1423761862075303</v>
+      </c>
+      <c r="D90">
+        <v>-0.3151180556198838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001360967482800916</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01021217914112164</v>
+      </c>
+      <c r="C91">
+        <v>-0.1041446441034608</v>
+      </c>
+      <c r="D91">
+        <v>0.02163554939113427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01488974317779523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0003439547337287616</v>
+      </c>
+      <c r="C92">
+        <v>-0.1531483115431768</v>
+      </c>
+      <c r="D92">
+        <v>-0.3260520112794654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00221016150848178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00519589514332631</v>
+      </c>
+      <c r="C93">
+        <v>-0.1254839256449652</v>
+      </c>
+      <c r="D93">
+        <v>-0.3104060181980875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00307189862711748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02192005698857096</v>
+      </c>
+      <c r="C94">
+        <v>-0.1569403554411569</v>
+      </c>
+      <c r="D94">
+        <v>0.03364849271805639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.0055029419871011</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01577963006604658</v>
+      </c>
+      <c r="C95">
+        <v>-0.1243131681209097</v>
+      </c>
+      <c r="D95">
+        <v>0.06919356632454997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002901976373677956</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03458784622791441</v>
+      </c>
+      <c r="C97">
+        <v>-0.1774722180247474</v>
+      </c>
+      <c r="D97">
+        <v>0.04257601517766375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007107367539838914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03539527469195538</v>
+      </c>
+      <c r="C98">
+        <v>-0.2560921408720309</v>
+      </c>
+      <c r="D98">
+        <v>0.04257100353132233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9807249723728566</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828932603424146</v>
+      </c>
+      <c r="C99">
+        <v>0.1079697225707829</v>
+      </c>
+      <c r="D99">
+        <v>-0.03279913775854528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00235973527651504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003274711914576011</v>
+      </c>
+      <c r="C101">
+        <v>-0.04785878811352239</v>
+      </c>
+      <c r="D101">
+        <v>0.01744594748248485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
